--- a/data/taxonomic key data.xlsx
+++ b/data/taxonomic key data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601D1219-BFC5-4C41-B6FF-4254B8B6B922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64854BBA-C366-44BC-BDB1-E601B410843C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18360" yWindow="300" windowWidth="20025" windowHeight="20640" activeTab="3" xr2:uid="{10F64F7F-A08F-47A2-ACFC-F3D7F9FF1593}"/>
+    <workbookView xWindow="5460" yWindow="96" windowWidth="24984" windowHeight="16572" activeTab="3" xr2:uid="{10F64F7F-A08F-47A2-ACFC-F3D7F9FF1593}"/>
   </bookViews>
   <sheets>
     <sheet name="Traits" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Old Trait Data" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Taxa Data'!$A$1:$T$211</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Taxa Data'!$A$1:$Y$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4218" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4433" uniqueCount="429">
   <si>
     <t>Trait</t>
   </si>
@@ -1313,6 +1313,18 @@
   </si>
   <si>
     <t>Walking legs are rose red to grey</t>
+  </si>
+  <si>
+    <t>Lateral margins of carapace angle</t>
+  </si>
+  <si>
+    <t>Lateral margins of carapace are clearly convergent</t>
+  </si>
+  <si>
+    <t>Lateral margins of carapace are mildly convergent/almost parallel</t>
+  </si>
+  <si>
+    <t>24.?</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1407,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="52">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2206,20 +2238,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF502AD-4408-4993-BE91-9B79E0A99B48}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2239,7 +2271,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2259,7 +2291,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2279,7 +2311,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2299,7 +2331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2319,7 +2351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2339,7 +2371,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2359,7 +2391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2379,7 +2411,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2399,7 +2431,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2419,7 +2451,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2439,7 +2471,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2459,7 +2491,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2479,7 +2511,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2499,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2519,7 +2551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2539,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2559,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2579,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2599,7 +2631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2619,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2639,7 +2671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2659,7 +2691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2679,7 +2711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2696,6 +2728,26 @@
         <v>28</v>
       </c>
       <c r="F24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>425</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2713,14 +2765,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>157</v>
       </c>
@@ -2734,7 +2786,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2756,18 +2808,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000B03AE-DDB5-42CA-B0F1-F1BD4626B09E}">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="70.42578125" customWidth="1"/>
+    <col min="2" max="2" width="70.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -2778,7 +2830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -2789,7 +2841,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -2800,7 +2852,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.1</v>
       </c>
@@ -2811,7 +2863,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.2000000000000002</v>
       </c>
@@ -2822,7 +2874,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.2999999999999998</v>
       </c>
@@ -2833,7 +2885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.1</v>
       </c>
@@ -2844,7 +2896,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.2</v>
       </c>
@@ -2855,7 +2907,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.3</v>
       </c>
@@ -2866,7 +2918,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3.4</v>
       </c>
@@ -2877,7 +2929,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.5</v>
       </c>
@@ -2888,7 +2940,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3.6</v>
       </c>
@@ -2899,7 +2951,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3.7</v>
       </c>
@@ -2910,7 +2962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3.8</v>
       </c>
@@ -2921,7 +2973,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3.9</v>
       </c>
@@ -2932,7 +2984,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>129</v>
       </c>
@@ -2943,7 +2995,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>3.11</v>
       </c>
@@ -2954,7 +3006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>3.12</v>
       </c>
@@ -2965,7 +3017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4.0999999999999996</v>
       </c>
@@ -2976,7 +3028,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4.2</v>
       </c>
@@ -2987,7 +3039,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4.3</v>
       </c>
@@ -2998,7 +3050,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5.0999999999999996</v>
       </c>
@@ -3009,7 +3061,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5.2</v>
       </c>
@@ -3020,7 +3072,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>6.1</v>
       </c>
@@ -3031,7 +3083,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6.2</v>
       </c>
@@ -3042,7 +3094,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>7.1</v>
       </c>
@@ -3053,7 +3105,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>7.2</v>
       </c>
@@ -3064,7 +3116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>8.1</v>
       </c>
@@ -3075,7 +3127,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>8.1999999999999993</v>
       </c>
@@ -3086,7 +3138,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>8.3000000000000007</v>
       </c>
@@ -3097,7 +3149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>8.4</v>
       </c>
@@ -3108,7 +3160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>8.5</v>
       </c>
@@ -3119,7 +3171,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>8.6</v>
       </c>
@@ -3130,7 +3182,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>9.1</v>
       </c>
@@ -3141,7 +3193,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>9.1999999999999993</v>
       </c>
@@ -3152,7 +3204,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10.1</v>
       </c>
@@ -3163,7 +3215,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>10.199999999999999</v>
       </c>
@@ -3174,7 +3226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>10.3</v>
       </c>
@@ -3185,7 +3237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>10.4</v>
       </c>
@@ -3196,7 +3248,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>10.5</v>
       </c>
@@ -3207,7 +3259,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>11.1</v>
       </c>
@@ -3218,7 +3270,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>11.2</v>
       </c>
@@ -3229,7 +3281,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>12.1</v>
       </c>
@@ -3240,7 +3292,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>12.2</v>
       </c>
@@ -3251,7 +3303,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>12.3</v>
       </c>
@@ -3262,7 +3314,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>12.4</v>
       </c>
@@ -3273,7 +3325,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>12.5</v>
       </c>
@@ -3284,7 +3336,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>12.6</v>
       </c>
@@ -3295,7 +3347,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>13.1</v>
       </c>
@@ -3306,7 +3358,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>13.2</v>
       </c>
@@ -3317,7 +3369,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>14.1</v>
       </c>
@@ -3328,7 +3380,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>14.2</v>
       </c>
@@ -3339,7 +3391,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>14.3</v>
       </c>
@@ -3350,7 +3402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>15.1</v>
       </c>
@@ -3361,7 +3413,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>15.2</v>
       </c>
@@ -3372,7 +3424,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>15.3</v>
       </c>
@@ -3383,7 +3435,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>15.4</v>
       </c>
@@ -3394,7 +3446,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>15.5</v>
       </c>
@@ -3405,7 +3457,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>16.100000000000001</v>
       </c>
@@ -3416,7 +3468,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>16.2</v>
       </c>
@@ -3427,7 +3479,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>16.3</v>
       </c>
@@ -3438,7 +3490,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>16.399999999999999</v>
       </c>
@@ -3449,7 +3501,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>16.5</v>
       </c>
@@ -3460,7 +3512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>16.600000000000001</v>
       </c>
@@ -3471,7 +3523,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>16.7</v>
       </c>
@@ -3482,7 +3534,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>16.8</v>
       </c>
@@ -3493,7 +3545,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>16.899999999999999</v>
       </c>
@@ -3504,7 +3556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>17.100000000000001</v>
       </c>
@@ -3515,7 +3567,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>17.2</v>
       </c>
@@ -3526,7 +3578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>18.100000000000001</v>
       </c>
@@ -3537,7 +3589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>18.2</v>
       </c>
@@ -3548,7 +3600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>18.3</v>
       </c>
@@ -3559,7 +3611,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>18.399999999999999</v>
       </c>
@@ -3570,7 +3622,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>18.5</v>
       </c>
@@ -3581,7 +3633,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>18.600000000000001</v>
       </c>
@@ -3592,7 +3644,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>19.100000000000001</v>
       </c>
@@ -3603,7 +3655,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>19.2</v>
       </c>
@@ -3614,7 +3666,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>20.100000000000001</v>
       </c>
@@ -3625,7 +3677,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>20.2</v>
       </c>
@@ -3636,7 +3688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>21.1</v>
       </c>
@@ -3647,7 +3699,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>21.2</v>
       </c>
@@ -3658,7 +3710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>22.1</v>
       </c>
@@ -3669,7 +3721,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>22.2</v>
       </c>
@@ -3680,7 +3732,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>23.1</v>
       </c>
@@ -3691,7 +3743,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>23.2</v>
       </c>
@@ -3699,6 +3751,28 @@
         <v>411</v>
       </c>
       <c r="C85" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>24.1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>426</v>
+      </c>
+      <c r="C86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>24.2</v>
+      </c>
+      <c r="B87" t="s">
+        <v>427</v>
+      </c>
+      <c r="C87" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3709,23 +3783,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC15929-3CC2-4C58-A610-B698FFC4555C}">
-  <dimension ref="A1:X211"/>
+  <dimension ref="A1:Y211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3090" topLeftCell="A107" activePane="bottomLeft"/>
-      <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
+      <pane ySplit="3084" topLeftCell="A106" activePane="bottomLeft"/>
+      <selection activeCell="Y1" sqref="A1:Y1"/>
+      <selection pane="bottomLeft" activeCell="Y109" sqref="Y109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="9" width="5.7109375" style="1"/>
-    <col min="11" max="13" width="5.7109375" style="1"/>
-    <col min="15" max="15" width="5.7109375" style="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="9" width="5.6640625" style="1"/>
+    <col min="11" max="13" width="5.6640625" style="1"/>
+    <col min="15" max="15" width="5.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="139.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="139.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
@@ -3798,8 +3872,11 @@
       <c r="X1" s="10" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y1" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>289</v>
       </c>
@@ -3872,8 +3949,11 @@
       <c r="X2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>290</v>
       </c>
@@ -3946,8 +4026,11 @@
       <c r="X3" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y3">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>291</v>
       </c>
@@ -4020,8 +4103,11 @@
       <c r="X4" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>292</v>
       </c>
@@ -4094,8 +4180,11 @@
       <c r="X5" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>293</v>
       </c>
@@ -4168,8 +4257,11 @@
       <c r="X6" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>294</v>
       </c>
@@ -4242,8 +4334,11 @@
       <c r="X7" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>295</v>
       </c>
@@ -4316,8 +4411,11 @@
       <c r="X8" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>296</v>
       </c>
@@ -4390,8 +4488,11 @@
       <c r="X9" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>297</v>
       </c>
@@ -4464,8 +4565,11 @@
       <c r="X10" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>298</v>
       </c>
@@ -4538,8 +4642,11 @@
       <c r="X11">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>299</v>
       </c>
@@ -4612,8 +4719,11 @@
       <c r="X12" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>300</v>
       </c>
@@ -4686,8 +4796,11 @@
       <c r="X13" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y13" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>301</v>
       </c>
@@ -4760,8 +4873,11 @@
       <c r="X14" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>302</v>
       </c>
@@ -4834,8 +4950,11 @@
       <c r="X15" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y15" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>303</v>
       </c>
@@ -4908,8 +5027,11 @@
       <c r="X16" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y16" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>304</v>
       </c>
@@ -4982,8 +5104,11 @@
       <c r="X17" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y17" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>305</v>
       </c>
@@ -5056,8 +5181,11 @@
       <c r="X18" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y18" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>306</v>
       </c>
@@ -5130,8 +5258,11 @@
       <c r="X19" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y19" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>307</v>
       </c>
@@ -5204,8 +5335,11 @@
       <c r="X20" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y20" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>308</v>
       </c>
@@ -5278,8 +5412,11 @@
       <c r="X21" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y21" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>309</v>
       </c>
@@ -5352,8 +5489,11 @@
       <c r="X22" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y22" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>310</v>
       </c>
@@ -5426,8 +5566,11 @@
       <c r="X23" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>311</v>
       </c>
@@ -5500,8 +5643,11 @@
       <c r="X24" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y24" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>312</v>
       </c>
@@ -5574,8 +5720,11 @@
       <c r="X25" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>313</v>
       </c>
@@ -5648,8 +5797,11 @@
       <c r="X26" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>314</v>
       </c>
@@ -5722,8 +5874,11 @@
       <c r="X27" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y27" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>315</v>
       </c>
@@ -5796,8 +5951,11 @@
       <c r="X28" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y28" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>316</v>
       </c>
@@ -5870,8 +6028,11 @@
       <c r="X29" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y29" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>317</v>
       </c>
@@ -5944,8 +6105,11 @@
       <c r="X30" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y30" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>318</v>
       </c>
@@ -6018,8 +6182,11 @@
       <c r="X31" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y31" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>319</v>
       </c>
@@ -6092,8 +6259,11 @@
       <c r="X32" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y32" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>320</v>
       </c>
@@ -6166,8 +6336,11 @@
       <c r="X33" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y33" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>321</v>
       </c>
@@ -6240,8 +6413,11 @@
       <c r="X34" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y34" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>322</v>
       </c>
@@ -6314,8 +6490,11 @@
       <c r="X35" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y35" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>323</v>
       </c>
@@ -6388,8 +6567,11 @@
       <c r="X36" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y36" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>324</v>
       </c>
@@ -6462,8 +6644,11 @@
       <c r="X37" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y37" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>325</v>
       </c>
@@ -6536,8 +6721,11 @@
       <c r="X38" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y38" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>326</v>
       </c>
@@ -6610,8 +6798,11 @@
       <c r="X39" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y39" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>327</v>
       </c>
@@ -6684,8 +6875,11 @@
       <c r="X40" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y40" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>328</v>
       </c>
@@ -6758,8 +6952,11 @@
       <c r="X41" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y41" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>329</v>
       </c>
@@ -6832,8 +7029,11 @@
       <c r="X42" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y42" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>330</v>
       </c>
@@ -6906,8 +7106,11 @@
       <c r="X43" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y43" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>331</v>
       </c>
@@ -6980,8 +7183,11 @@
       <c r="X44" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y44" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>332</v>
       </c>
@@ -7054,8 +7260,11 @@
       <c r="X45" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y45" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>333</v>
       </c>
@@ -7128,8 +7337,11 @@
       <c r="X46" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y46">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>334</v>
       </c>
@@ -7202,8 +7414,11 @@
       <c r="X47" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y47" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>335</v>
       </c>
@@ -7276,8 +7491,11 @@
       <c r="X48" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y48" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>336</v>
       </c>
@@ -7350,8 +7568,11 @@
       <c r="X49" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y49" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>337</v>
       </c>
@@ -7424,8 +7645,11 @@
       <c r="X50" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y50" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>338</v>
       </c>
@@ -7498,8 +7722,11 @@
       <c r="X51" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y51" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>339</v>
       </c>
@@ -7572,8 +7799,11 @@
       <c r="X52" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y52" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>340</v>
       </c>
@@ -7646,8 +7876,11 @@
       <c r="X53" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y53" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>341</v>
       </c>
@@ -7720,8 +7953,11 @@
       <c r="X54" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y54" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>342</v>
       </c>
@@ -7794,8 +8030,11 @@
       <c r="X55" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y55" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>343</v>
       </c>
@@ -7868,8 +8107,11 @@
       <c r="X56" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y56" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>344</v>
       </c>
@@ -7942,8 +8184,11 @@
       <c r="X57" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y57" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>345</v>
       </c>
@@ -8016,8 +8261,11 @@
       <c r="X58" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y58" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>346</v>
       </c>
@@ -8090,8 +8338,11 @@
       <c r="X59" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>347</v>
       </c>
@@ -8164,8 +8415,11 @@
       <c r="X60" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y60" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>348</v>
       </c>
@@ -8238,8 +8492,11 @@
       <c r="X61" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y61" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>349</v>
       </c>
@@ -8312,8 +8569,11 @@
       <c r="X62" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y62" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>350</v>
       </c>
@@ -8386,8 +8646,11 @@
       <c r="X63" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y63" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>351</v>
       </c>
@@ -8460,8 +8723,11 @@
       <c r="X64" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y64" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>352</v>
       </c>
@@ -8534,8 +8800,11 @@
       <c r="X65" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y65" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>353</v>
       </c>
@@ -8608,8 +8877,11 @@
       <c r="X66" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y66" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>354</v>
       </c>
@@ -8682,8 +8954,11 @@
       <c r="X67" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y67" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>355</v>
       </c>
@@ -8756,8 +9031,11 @@
       <c r="X68" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y68" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>356</v>
       </c>
@@ -8830,8 +9108,11 @@
       <c r="X69" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y69" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>357</v>
       </c>
@@ -8904,8 +9185,11 @@
       <c r="X70" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y70" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>358</v>
       </c>
@@ -8978,8 +9262,11 @@
       <c r="X71" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y71" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>359</v>
       </c>
@@ -9052,8 +9339,11 @@
       <c r="X72" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y72" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>360</v>
       </c>
@@ -9126,8 +9416,11 @@
       <c r="X73" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y73" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>361</v>
       </c>
@@ -9200,8 +9493,11 @@
       <c r="X74" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y74" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>362</v>
       </c>
@@ -9274,8 +9570,11 @@
       <c r="X75" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y75" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>363</v>
       </c>
@@ -9348,8 +9647,11 @@
       <c r="X76" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y76" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>364</v>
       </c>
@@ -9422,8 +9724,11 @@
       <c r="X77" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y77" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>365</v>
       </c>
@@ -9496,8 +9801,11 @@
       <c r="X78" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y78" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>366</v>
       </c>
@@ -9570,8 +9878,11 @@
       <c r="X79" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y79" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>367</v>
       </c>
@@ -9644,8 +9955,11 @@
       <c r="X80" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y80" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>368</v>
       </c>
@@ -9718,8 +10032,11 @@
       <c r="X81" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y81" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>369</v>
       </c>
@@ -9792,8 +10109,11 @@
       <c r="X82" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y82" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>370</v>
       </c>
@@ -9866,8 +10186,11 @@
       <c r="X83" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y83" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>371</v>
       </c>
@@ -9940,8 +10263,11 @@
       <c r="X84" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y84" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>372</v>
       </c>
@@ -10014,8 +10340,11 @@
       <c r="X85" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y85" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>373</v>
       </c>
@@ -10088,8 +10417,11 @@
       <c r="X86" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y86" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>374</v>
       </c>
@@ -10162,8 +10494,11 @@
       <c r="X87" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y87" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>375</v>
       </c>
@@ -10236,8 +10571,11 @@
       <c r="X88" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y88" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>376</v>
       </c>
@@ -10310,8 +10648,11 @@
       <c r="X89" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y89" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>377</v>
       </c>
@@ -10384,8 +10725,11 @@
       <c r="X90" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y90" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>378</v>
       </c>
@@ -10458,8 +10802,11 @@
       <c r="X91" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y91" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>379</v>
       </c>
@@ -10532,8 +10879,11 @@
       <c r="X92" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y92" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>380</v>
       </c>
@@ -10606,8 +10956,11 @@
       <c r="X93" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y93" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>381</v>
       </c>
@@ -10680,8 +11033,11 @@
       <c r="X94" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y94" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>382</v>
       </c>
@@ -10754,8 +11110,11 @@
       <c r="X95">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y95" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>383</v>
       </c>
@@ -10828,8 +11187,11 @@
       <c r="X96" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y96" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>384</v>
       </c>
@@ -10902,8 +11264,11 @@
       <c r="X97" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y97" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>385</v>
       </c>
@@ -10976,8 +11341,11 @@
       <c r="X98" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y98" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>386</v>
       </c>
@@ -11050,8 +11418,11 @@
       <c r="X99" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y99" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>387</v>
       </c>
@@ -11124,8 +11495,11 @@
       <c r="X100">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y100" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>388</v>
       </c>
@@ -11198,8 +11572,11 @@
       <c r="X101" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y101" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>389</v>
       </c>
@@ -11272,8 +11649,11 @@
       <c r="X102" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y102" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>390</v>
       </c>
@@ -11346,8 +11726,11 @@
       <c r="X103" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y103" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>391</v>
       </c>
@@ -11420,8 +11803,11 @@
       <c r="X104" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y104" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>392</v>
       </c>
@@ -11494,8 +11880,11 @@
       <c r="X105" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y105" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>393</v>
       </c>
@@ -11568,8 +11957,11 @@
       <c r="X106" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y106" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>200</v>
       </c>
@@ -11642,8 +12034,11 @@
       <c r="X107" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y107" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>201</v>
       </c>
@@ -11716,8 +12111,11 @@
       <c r="X108" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y108">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>202</v>
       </c>
@@ -11790,8 +12188,11 @@
       <c r="X109" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y109" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>203</v>
       </c>
@@ -11864,8 +12265,11 @@
       <c r="X110" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y110" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>204</v>
       </c>
@@ -11938,8 +12342,11 @@
       <c r="X111" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y111" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>205</v>
       </c>
@@ -12012,8 +12419,11 @@
       <c r="X112" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y112" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>206</v>
       </c>
@@ -12086,8 +12496,11 @@
       <c r="X113" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y113" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>207</v>
       </c>
@@ -12160,8 +12573,11 @@
       <c r="X114" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y114" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>208</v>
       </c>
@@ -12234,8 +12650,11 @@
       <c r="X115" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y115" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>209</v>
       </c>
@@ -12308,8 +12727,11 @@
       <c r="X116">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y116" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>210</v>
       </c>
@@ -12382,8 +12804,11 @@
       <c r="X117" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y117" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>211</v>
       </c>
@@ -12456,8 +12881,11 @@
       <c r="X118" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y118" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>212</v>
       </c>
@@ -12530,8 +12958,11 @@
       <c r="X119" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y119" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>213</v>
       </c>
@@ -12604,8 +13035,11 @@
       <c r="X120" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y120" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>214</v>
       </c>
@@ -12678,8 +13112,11 @@
       <c r="X121" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y121" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>198</v>
       </c>
@@ -12752,8 +13189,11 @@
       <c r="X122" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y122" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>215</v>
       </c>
@@ -12826,8 +13266,11 @@
       <c r="X123" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y123" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>216</v>
       </c>
@@ -12900,8 +13343,11 @@
       <c r="X124" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y124" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>217</v>
       </c>
@@ -12974,8 +13420,11 @@
       <c r="X125" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y125" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>218</v>
       </c>
@@ -13048,8 +13497,11 @@
       <c r="X126" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y126" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>219</v>
       </c>
@@ -13122,8 +13574,11 @@
       <c r="X127" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y127" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>220</v>
       </c>
@@ -13196,8 +13651,11 @@
       <c r="X128" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y128" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>221</v>
       </c>
@@ -13270,8 +13728,11 @@
       <c r="X129" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y129" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>222</v>
       </c>
@@ -13344,8 +13805,11 @@
       <c r="X130" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y130" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>223</v>
       </c>
@@ -13418,8 +13882,11 @@
       <c r="X131" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y131" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>224</v>
       </c>
@@ -13492,8 +13959,11 @@
       <c r="X132" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y132" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>225</v>
       </c>
@@ -13566,8 +14036,11 @@
       <c r="X133" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y133" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>226</v>
       </c>
@@ -13640,8 +14113,11 @@
       <c r="X134" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y134" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>227</v>
       </c>
@@ -13714,8 +14190,11 @@
       <c r="X135" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y135" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>228</v>
       </c>
@@ -13788,8 +14267,11 @@
       <c r="X136" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y136" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>229</v>
       </c>
@@ -13862,8 +14344,11 @@
       <c r="X137" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y137" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>230</v>
       </c>
@@ -13936,8 +14421,11 @@
       <c r="X138" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y138" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>231</v>
       </c>
@@ -14010,8 +14498,11 @@
       <c r="X139" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y139" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>232</v>
       </c>
@@ -14084,8 +14575,11 @@
       <c r="X140" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y140" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>233</v>
       </c>
@@ -14158,8 +14652,11 @@
       <c r="X141" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y141" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>234</v>
       </c>
@@ -14232,8 +14729,11 @@
       <c r="X142" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y142" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>235</v>
       </c>
@@ -14306,8 +14806,11 @@
       <c r="X143" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y143" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>199</v>
       </c>
@@ -14380,8 +14883,11 @@
       <c r="X144" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y144" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>192</v>
       </c>
@@ -14454,8 +14960,11 @@
       <c r="X145" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y145" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>236</v>
       </c>
@@ -14528,8 +15037,11 @@
       <c r="X146" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y146" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>237</v>
       </c>
@@ -14602,8 +15114,11 @@
       <c r="X147" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y147" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>191</v>
       </c>
@@ -14676,8 +15191,11 @@
       <c r="X148" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y148" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>194</v>
       </c>
@@ -14750,8 +15268,11 @@
       <c r="X149" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y149" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>195</v>
       </c>
@@ -14824,8 +15345,11 @@
       <c r="X150" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y150" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>238</v>
       </c>
@@ -14898,8 +15422,11 @@
       <c r="X151" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y151">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>239</v>
       </c>
@@ -14972,8 +15499,11 @@
       <c r="X152" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y152" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>240</v>
       </c>
@@ -15046,8 +15576,11 @@
       <c r="X153" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y153" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>241</v>
       </c>
@@ -15120,8 +15653,11 @@
       <c r="X154" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y154" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>242</v>
       </c>
@@ -15194,8 +15730,11 @@
       <c r="X155" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y155" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>243</v>
       </c>
@@ -15268,8 +15807,11 @@
       <c r="X156" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y156" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>244</v>
       </c>
@@ -15342,8 +15884,11 @@
       <c r="X157" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y157" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>245</v>
       </c>
@@ -15416,8 +15961,11 @@
       <c r="X158" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y158" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>186</v>
       </c>
@@ -15490,8 +16038,11 @@
       <c r="X159" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y159" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>193</v>
       </c>
@@ -15564,8 +16115,11 @@
       <c r="X160" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y160" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>246</v>
       </c>
@@ -15638,8 +16192,11 @@
       <c r="X161" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y161" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -15712,8 +16269,11 @@
       <c r="X162" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y162" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>247</v>
       </c>
@@ -15786,8 +16346,11 @@
       <c r="X163" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y163" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>187</v>
       </c>
@@ -15860,8 +16423,11 @@
       <c r="X164" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y164" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>248</v>
       </c>
@@ -15934,8 +16500,11 @@
       <c r="X165" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y165" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>249</v>
       </c>
@@ -16008,8 +16577,11 @@
       <c r="X166" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y166" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>197</v>
       </c>
@@ -16082,8 +16654,11 @@
       <c r="X167" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y167" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>250</v>
       </c>
@@ -16156,8 +16731,11 @@
       <c r="X168" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y168" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>190</v>
       </c>
@@ -16230,8 +16808,11 @@
       <c r="X169" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y169" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>251</v>
       </c>
@@ -16304,8 +16885,11 @@
       <c r="X170" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y170" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>183</v>
       </c>
@@ -16378,8 +16962,11 @@
       <c r="X171" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y171" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>252</v>
       </c>
@@ -16452,8 +17039,11 @@
       <c r="X172" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y172" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>253</v>
       </c>
@@ -16526,8 +17116,11 @@
       <c r="X173" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y173" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>254</v>
       </c>
@@ -16600,8 +17193,11 @@
       <c r="X174" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y174" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>255</v>
       </c>
@@ -16674,8 +17270,11 @@
       <c r="X175" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y175" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>189</v>
       </c>
@@ -16748,8 +17347,11 @@
       <c r="X176" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y176" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>184</v>
       </c>
@@ -16822,8 +17424,11 @@
       <c r="X177" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y177" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>185</v>
       </c>
@@ -16896,8 +17501,11 @@
       <c r="X178" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y178" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>256</v>
       </c>
@@ -16970,8 +17578,11 @@
       <c r="X179" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y179" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>257</v>
       </c>
@@ -17044,8 +17655,11 @@
       <c r="X180" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y180" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>258</v>
       </c>
@@ -17118,8 +17732,11 @@
       <c r="X181" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y181" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>259</v>
       </c>
@@ -17192,8 +17809,11 @@
       <c r="X182" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y182" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>260</v>
       </c>
@@ -17266,8 +17886,11 @@
       <c r="X183" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y183" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>261</v>
       </c>
@@ -17340,8 +17963,11 @@
       <c r="X184" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y184" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>262</v>
       </c>
@@ -17414,8 +18040,11 @@
       <c r="X185" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y185" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>263</v>
       </c>
@@ -17488,8 +18117,11 @@
       <c r="X186" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y186" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>264</v>
       </c>
@@ -17562,8 +18194,11 @@
       <c r="X187" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y187" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>265</v>
       </c>
@@ -17636,8 +18271,11 @@
       <c r="X188" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y188" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>266</v>
       </c>
@@ -17710,8 +18348,11 @@
       <c r="X189" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y189" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>267</v>
       </c>
@@ -17784,8 +18425,11 @@
       <c r="X190" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y190" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -17858,8 +18502,11 @@
       <c r="X191" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y191" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>268</v>
       </c>
@@ -17932,8 +18579,11 @@
       <c r="X192" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y192" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>269</v>
       </c>
@@ -18006,8 +18656,11 @@
       <c r="X193" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y193" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="194" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>270</v>
       </c>
@@ -18080,8 +18733,11 @@
       <c r="X194" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y194" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>271</v>
       </c>
@@ -18154,8 +18810,11 @@
       <c r="X195" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y195" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>272</v>
       </c>
@@ -18228,8 +18887,11 @@
       <c r="X196" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y196" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>273</v>
       </c>
@@ -18302,8 +18964,11 @@
       <c r="X197" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y197" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>274</v>
       </c>
@@ -18376,8 +19041,11 @@
       <c r="X198" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y198" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="199" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>275</v>
       </c>
@@ -18450,8 +19118,11 @@
       <c r="X199" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y199" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="200" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>276</v>
       </c>
@@ -18524,8 +19195,11 @@
       <c r="X200">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y200" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>277</v>
       </c>
@@ -18598,8 +19272,11 @@
       <c r="X201" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y201" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>278</v>
       </c>
@@ -18672,8 +19349,11 @@
       <c r="X202" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y202" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="203" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>279</v>
       </c>
@@ -18746,8 +19426,11 @@
       <c r="X203" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y203" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="204" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>196</v>
       </c>
@@ -18820,8 +19503,11 @@
       <c r="X204" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y204" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="205" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>286</v>
       </c>
@@ -18894,8 +19580,11 @@
       <c r="X205">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y205" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="206" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>280</v>
       </c>
@@ -18968,8 +19657,11 @@
       <c r="X206" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y206" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="207" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>281</v>
       </c>
@@ -19042,8 +19734,11 @@
       <c r="X207" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y207" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="208" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>282</v>
       </c>
@@ -19116,8 +19811,11 @@
       <c r="X208" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y208" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="209" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>283</v>
       </c>
@@ -19190,8 +19888,11 @@
       <c r="X209" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y209" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="210" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>284</v>
       </c>
@@ -19264,8 +19965,11 @@
       <c r="X210" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y210" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="211" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>285</v>
       </c>
@@ -19338,210 +20042,221 @@
       <c r="X211" t="s">
         <v>415</v>
       </c>
+      <c r="Y211" t="s">
+        <v>428</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T211" xr:uid="{32CE6206-353C-4DBD-B88F-D68FD8ADF7B5}"/>
+  <autoFilter ref="A1:Y1" xr:uid="{4AC9A0FF-94D7-42CA-BA8C-32F595BCDCC3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T211">
     <sortCondition ref="A2:A211"/>
   </sortState>
-  <conditionalFormatting sqref="A1:XFD1 A8:P12 A7:R7 A2:Q6 A215:XFD1048576 A13:R27 A210:A211 T2:T27 R2:R12 A133:U133 W2:XFD2 Y3:XFD209 A28:T132 A134:T209">
-    <cfRule type="containsText" dxfId="49" priority="58" operator="containsText" text=".-">
+  <conditionalFormatting sqref="A1:XFD1 A8:P12 A7:R7 A2:Q6 A215:XFD1048576 A13:R27 A210:A211 T2:T27 R2:R12 A133:U133 Z3:XFD209 A28:T132 A134:T209 W2:XFD2">
+    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="59" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="50" priority="61" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S27">
-    <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",S2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C210:J210 C211:I211 N210:S210">
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",C210)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",C210)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J211">
-    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",J211)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",J211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K210:K211">
-    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",K210)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",K210)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L211:T211">
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",L211)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",L211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V133">
-    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",V133)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",V133)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q12">
-    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",Q8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",Q8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T210">
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",T210)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",T210)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L210:M210">
-    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",L210)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",L210)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U134:U199 U206:U211 U201:U204">
-    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",U134)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",U134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V134:V199 V206:V211 V201:V204">
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",V134)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",V134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U94 U96:U115 U117:U132">
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",U2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V94 V96:V115 V117:V132">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",V2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",V2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V200">
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",V200)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",V200)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U205">
-    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",U205)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",U205)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V205">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",V205)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",V205)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U95">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",U95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",U95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V95">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",V95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",V95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U116">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",U116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",U116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V116">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",V116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",V116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U200">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",U200)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",U200)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X211">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",X3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",X3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W107:W211">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",W107)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",W107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W106">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text=".-">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text=".-">
       <formula>NOT(ISERROR(SEARCH(".-",W3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",W3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3:Y211">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text=".-">
+      <formula>NOT(ISERROR(SEARCH(".-",Y3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="~?">
+      <formula>NOT(ISERROR(SEARCH("~?",Y3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19557,16 +20272,16 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="76.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="76.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -19586,7 +20301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19606,7 +20321,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -19626,7 +20341,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -19646,7 +20361,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -19666,7 +20381,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -19686,7 +20401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -19706,7 +20421,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -19726,7 +20441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -19746,7 +20461,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -19766,7 +20481,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -19786,7 +20501,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -19806,7 +20521,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -19826,7 +20541,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -19846,7 +20561,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -19866,7 +20581,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -19886,7 +20601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -19906,7 +20621,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -19926,7 +20641,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -19946,7 +20661,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -19966,7 +20681,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -19986,7 +20701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6</v>
       </c>
@@ -20006,7 +20721,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
@@ -20026,7 +20741,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>7</v>
       </c>
@@ -20046,7 +20761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>7</v>
       </c>
@@ -20066,7 +20781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>8</v>
       </c>
@@ -20086,7 +20801,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8</v>
       </c>
@@ -20106,7 +20821,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>8</v>
       </c>
@@ -20126,7 +20841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>8</v>
       </c>
@@ -20146,7 +20861,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>8</v>
       </c>
@@ -20166,7 +20881,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>8</v>
       </c>
@@ -20186,7 +20901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>9</v>
       </c>
@@ -20206,7 +20921,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>9</v>
       </c>
@@ -20226,7 +20941,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>10</v>
       </c>
@@ -20246,7 +20961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>10</v>
       </c>
@@ -20266,7 +20981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10</v>
       </c>
@@ -20286,7 +21001,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>10</v>
       </c>
@@ -20306,7 +21021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>10</v>
       </c>
@@ -20326,7 +21041,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>11</v>
       </c>
@@ -20346,7 +21061,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>11</v>
       </c>
@@ -20366,7 +21081,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>12</v>
       </c>
@@ -20386,7 +21101,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>12</v>
       </c>
@@ -20406,7 +21121,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>12</v>
       </c>
@@ -20426,7 +21141,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>13</v>
       </c>
@@ -20446,7 +21161,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>13</v>
       </c>
@@ -20466,7 +21181,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>14</v>
       </c>
@@ -20486,7 +21201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>14</v>
       </c>
@@ -20506,7 +21221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>15</v>
       </c>
@@ -20526,7 +21241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>15</v>
       </c>
@@ -20546,7 +21261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>15</v>
       </c>
@@ -20566,7 +21281,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>15</v>
       </c>
@@ -20586,7 +21301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>15</v>
       </c>
@@ -20606,7 +21321,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>16</v>
       </c>
@@ -20626,7 +21341,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>16</v>
       </c>
@@ -20646,7 +21361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>16</v>
       </c>
@@ -20666,7 +21381,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>16</v>
       </c>
@@ -20686,7 +21401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>16</v>
       </c>
@@ -20706,7 +21421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>16</v>
       </c>
@@ -20726,7 +21441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>16</v>
       </c>
@@ -20746,7 +21461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>17</v>
       </c>
@@ -20766,7 +21481,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>17</v>
       </c>
@@ -20786,7 +21501,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>18</v>
       </c>
@@ -20806,7 +21521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>18</v>
       </c>
@@ -20826,7 +21541,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>18</v>
       </c>
@@ -20846,7 +21561,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>19</v>
       </c>
@@ -20866,7 +21581,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>19</v>
       </c>
